--- a/silver_archivosParquet/fact_ventas.xlsx
+++ b/silver_archivosParquet/fact_ventas.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\OneDrive\Desktop\proyectoEtl\silver_archivosParquet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78C7203-9BEC-4AA9-BBAC-8DB7C3B72BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>ID_VENTA</t>
+  </si>
+  <si>
+    <t>ID_CLIENTE</t>
+  </si>
+  <si>
+    <t>ID_PRODUCTO</t>
+  </si>
+  <si>
+    <t>ID_FECHA</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO</t>
+  </si>
+  <si>
+    <t>TOTAL_VENTA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +78,101 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0D82591-0EF6-464E-8E95-6656A89C2194}" name="fact_ventas" displayName="fact_ventas" ref="A1:G7" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:G7" xr:uid="{D0D82591-0EF6-464E-8E95-6656A89C2194}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A933A5C3-2785-4845-9ABD-20AF8D556AC9}" name="ID_VENTA"/>
+    <tableColumn id="2" xr3:uid="{5F521D46-72F2-4E5E-BCF8-E828AE106FA2}" name="ID_CLIENTE"/>
+    <tableColumn id="3" xr3:uid="{65ADFD92-E38F-4D95-9E57-6E64D8DD7DD8}" name="ID_PRODUCTO"/>
+    <tableColumn id="4" xr3:uid="{7C531843-4D2F-48A9-837E-7BDFF2BA7BF9}" name="ID_FECHA"/>
+    <tableColumn id="5" xr3:uid="{CA60A0D5-63AE-4589-81CB-3ACC3CB6E7C8}" name="CANTIDAD"/>
+    <tableColumn id="6" xr3:uid="{73D5DD78-111A-4B67-9A0C-19068AB00662}" name="PRECIO"/>
+    <tableColumn id="7" xr3:uid="{87BF7068-8ACA-40A5-A76F-E338D0AFA954}" name="TOTAL_VENTA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,195 +459,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID_VENTA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID_CLIENTE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID_PRODUCTO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ID_FECHA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CANTIDAD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PRECIO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL_VENTA</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>3500</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>7000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>80</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>80</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>150</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>450</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>80</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>160</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>1200</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1200</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>1200</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>